--- a/docs/instalacion/EstadosFinancieros.xlsx
+++ b/docs/instalacion/EstadosFinancieros.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15180" windowHeight="3735" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6233" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6231" uniqueCount="1966">
   <si>
     <t>FECU</t>
   </si>
@@ -5909,25 +5909,22 @@
     <t>columna 4</t>
   </si>
   <si>
-    <t>columna 5</t>
-  </si>
-  <si>
-    <t>columna 6</t>
-  </si>
-  <si>
-    <t>columna 7</t>
-  </si>
-  <si>
-    <t>columna 8</t>
+    <t>Monto pesos</t>
+  </si>
+  <si>
+    <t>Monto Mil</t>
+  </si>
+  <si>
+    <t>Monto Pesos Mil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -6349,10 +6346,10 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -6369,7 +6366,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -6519,6 +6516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6553,6 +6551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6728,11 +6727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6766,7 +6765,7 @@
         <v>1722</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6817,24 +6816,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1959</v>
       </c>
@@ -6845,22 +6843,16 @@
         <v>1961</v>
       </c>
       <c r="D1" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="F1" t="s">
-        <v>1964</v>
-      </c>
-      <c r="G1" t="s">
         <v>1965</v>
       </c>
-      <c r="H1" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6874,19 +6866,13 @@
         <v>1234</v>
       </c>
       <c r="E2" s="1">
-        <v>2345</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
         <v>100000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6900,19 +6886,13 @@
         <v>1235</v>
       </c>
       <c r="E3" s="1">
-        <v>2346</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
         <v>150000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6926,19 +6906,13 @@
         <v>1236</v>
       </c>
       <c r="E4" s="1">
-        <v>2347</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
         <v>200000</v>
       </c>
-      <c r="H4" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6952,19 +6926,13 @@
         <v>1237</v>
       </c>
       <c r="E5" s="1">
-        <v>2348</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
         <v>300000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6978,15 +6946,9 @@
         <v>1238</v>
       </c>
       <c r="E6" s="1">
-        <v>2349</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
         <v>400000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>40000</v>
       </c>
     </row>
@@ -6996,10 +6958,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -9183,7 +9145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47408,7 +47370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
